--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -183,6 +183,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,32 +510,154 @@
       <c r="G2" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+    </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
       <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Every column and every record was selected from table "Customers"</t>
   </si>
@@ -109,6 +109,153 @@
   </si>
   <si>
     <t>1. Case insensitive</t>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Distinct </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>column1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> column2, …
+FROM table_name;
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Selects column1 , column2 (But here if a name has occurred twice, then it will select it only once.)</t>
+  </si>
+  <si>
+    <t>SELECT column1, column2, ...
+FROM table_name
+WHERE condition
+Ex: SELECT * FROM Customers
+WHERE CustomerID=1;</t>
+  </si>
+  <si>
+    <t>SELECT column1, column2, ...
+FROM table_name
+ORDER BY column1, column2, ... ASC|DESC;</t>
+  </si>
+  <si>
+    <t>The ORDER BY keyword is used to sort the result-set in ascending or descending order.
+The ORDER BY keyword sorts the records in ascending order by default. To sort the records in descending order, use the DESC keyword.</t>
+  </si>
+  <si>
+    <t>INSERT INTO table_name (column1, column2, column3, ...)
+VALUES (value1, value2, value3, ...);</t>
+  </si>
+  <si>
+    <t>SELECT CustomerName, ContactName, Address
+FROM Customers
+WHERE Address IS NULL;</t>
+  </si>
+  <si>
+    <t>UPDATE table_name
+SET column1 = value1, column2 = value2, ...
+WHERE condition;</t>
+  </si>
+  <si>
+    <t>DELETE FROM table_name WHERE condition;</t>
+  </si>
+  <si>
+    <t>Deletes whole record of where condition.</t>
+  </si>
+  <si>
+    <t>SELECT MIN(column_name)
+FROM table_name
+WHERE condition;</t>
+  </si>
+  <si>
+    <t>The LIKE operator is used in a WHERE clause to search for a specified pattern in a column.
+There are two wildcards often used in conjunction with the LIKE operator:
+% - The percent sign represents zero, one, or multiple characters
+_ - The underscore represents a single character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT column1, column2, ...
+FROM table_name
+WHERE columnN LIKE pattern;
+WHERE CustomerName LIKE 'a%' : Finds any values that start with "a"
+WHERE CustomerName LIKE '%a' : Finds any values that end with "a"
+WHERE CustomerName LIKE '%or%'  : Finds any values that have "or" in any position
+WHERE CustomerName LIKE '_r%'  : Finds any values that have "r" in the second position
+WHERE CustomerName LIKE 'a__%' : Finds any values that start with "a" and are at least 3 characters in length
+WHERE ContactName LIKE 'a%o' : Finds any values that start with "a" and ends with "o"
+</t>
+  </si>
+  <si>
+    <t>SELECT column_name(s)
+FROM table_name
+WHERE column_name IN (value1, value2, ...);</t>
+  </si>
+  <si>
+    <t>The IN operator allows you to specify multiple values in a WHERE clause.
+The IN operator is a shorthand for multiple OR conditions.</t>
+  </si>
+  <si>
+    <t>SELECT column_name(s)
+FROM table_name
+WHERE column_name BETWEEN value1 AND value2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BETWEEN operator selects values within a given range. The values can be numbers, text, or dates.
+The BETWEEN operator is inclusive: begin and end values are included. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alias </t>
+  </si>
+  <si>
+    <t>SQL aliases are used to give a table, or a column in a table, a temporary name.
+Aliases are often used to make column names more readable.
+An alias only exists for the duration of the query.</t>
+  </si>
+  <si>
+    <t>SELECT column1, column2, column3, ...
+INTO newtable [IN externaldb]
+FROM oldtable
+WHERE condition;</t>
+  </si>
+  <si>
+    <t>CASE
+    WHEN condition1 THEN result1
+    WHEN condition2 THEN result2
+    WHEN conditionN THEN resultN
+    ELSE result
+END;</t>
   </si>
 </sst>
 </file>
@@ -171,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -181,9 +328,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +336,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,11 +645,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -510,154 +669,242 @@
       <c r="G2" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>8</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>11</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>12</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>13</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>14</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>15</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>16</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
